--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1763FF-9A3A-5A4C-B605-2F12404C8ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C5D896-05FE-B844-9A5A-3E4DF142627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Satelitenbilder</t>
-  </si>
-  <si>
-    <t>Weitere Layer auf Karte: ÖV, Icons, Dörfer und Städte, Bulletin von White Risk</t>
   </si>
   <si>
     <t>Hüttenbeschriftung und Icons auf Karte ergänzt,
@@ -156,6 +153,31 @@
   </si>
   <si>
     <t>3D Karte mit MapLibre GL JS implementiert (Luftbilder und Skipisten)</t>
+  </si>
+  <si>
+    <t>Weitere Layer auf Karte: ÖV, Icons, Dörfer und Städte, Bulletin von White Risk
+Kopieren von Code aus Machbarkeitsstudie (Tile Fetcher, Shaded Relief, Riskmap prototype)</t>
+  </si>
+  <si>
+    <t>Grafische Reduktionsmethode anhand von "Achtung Lawine!" digitalisiert / in Gleichungsform gebracht</t>
+  </si>
+  <si>
+    <t>https://ebner.userweb.mwn.de/publ/lawinen-jdav.pdf</t>
+  </si>
+  <si>
+    <t>Ermunterung zur neuen Lawinenkunde</t>
+  </si>
+  <si>
+    <t>Erläuterungen zu 3x3 Lawinen</t>
+  </si>
+  <si>
+    <t>Projektvertrag überarbeitet</t>
+  </si>
+  <si>
+    <t>Tourenlager</t>
+  </si>
+  <si>
+    <t>Diverse Literatur gelesen</t>
   </si>
 </sst>
 </file>
@@ -216,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,15 +261,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -261,14 +283,17 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,20 +312,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{488C039C-EF8E-CA42-AEA4-B450677FE96B}" name="Tabelle3" displayName="Tabelle3" ref="A1:B1048576" totalsRowShown="0">
   <autoFilter ref="A1:B1048576" xr:uid="{488C039C-EF8E-CA42-AEA4-B450677FE96B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0DC2BF04-0FC2-424A-8543-B8BFF798F763}" name="Datum" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A571CB42-333B-FA44-8378-DD90E3D3713B}" name="Was?" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{0DC2BF04-0FC2-424A-8543-B8BFF798F763}" name="Datum" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A571CB42-333B-FA44-8378-DD90E3D3713B}" name="Was?" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA028A90-00B6-F441-A1DB-12C84DE2C231}" name="Tabelle4" displayName="Tabelle4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DA028A90-00B6-F441-A1DB-12C84DE2C231}" name="Tabelle4" displayName="Tabelle4" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C1048576" xr:uid="{DA028A90-00B6-F441-A1DB-12C84DE2C231}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{73D81AB5-162B-1446-870F-5F16F60F084C}" name="Titel" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{201C2862-17EE-4246-B009-81B386361A04}" name="Link / Ref" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{68E253C6-FB0B-2949-BC2E-B8E65B24015F}" name="Für Was" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{73D81AB5-162B-1446-870F-5F16F60F084C}" name="Titel" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{201C2862-17EE-4246-B009-81B386361A04}" name="Link / Ref" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{68E253C6-FB0B-2949-BC2E-B8E65B24015F}" name="Für Was" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -623,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -648,7 +673,7 @@
         <v>45373</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -664,15 +689,39 @@
         <v>45377</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45378</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>45381</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45418</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78EDC2B-6FEF-134D-BE2D-954A4E028471}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -822,6 +871,17 @@
       </c>
       <c r="C12" s="5" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -837,10 +897,11 @@
     <hyperlink ref="B4" r:id="rId9" xr:uid="{32F64FDC-D69E-6A49-9FB0-386C46513C22}"/>
     <hyperlink ref="B3" r:id="rId10" xr:uid="{C8C1275D-BF00-3948-A763-7F74EED595A9}"/>
     <hyperlink ref="B2" r:id="rId11" xr:uid="{E9133CDC-1F96-A342-B9E3-04D3D7FF75FE}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{85D4E5C6-7956-B045-B793-D9C4C9584EE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C5D896-05FE-B844-9A5A-3E4DF142627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2AB313-0E96-5C4C-8041-6E41AC61170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -159,9 +159,6 @@
 Kopieren von Code aus Machbarkeitsstudie (Tile Fetcher, Shaded Relief, Riskmap prototype)</t>
   </si>
   <si>
-    <t>Grafische Reduktionsmethode anhand von "Achtung Lawine!" digitalisiert / in Gleichungsform gebracht</t>
-  </si>
-  <si>
     <t>https://ebner.userweb.mwn.de/publ/lawinen-jdav.pdf</t>
   </si>
   <si>
@@ -178,6 +175,12 @@
   </si>
   <si>
     <t>Diverse Literatur gelesen</t>
+  </si>
+  <si>
+    <t>Schriftlicher Teil: Latex Dokument vorbereitet / organisiert und Struktur geschaffen</t>
+  </si>
+  <si>
+    <t>Grafische Reduktionsmethode anhand von "Achtung Lawine!" digitalisiert / in Gleichungsform gebracht, leider nicht brauchbar</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -705,15 +708,15 @@
         <v>45381</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -721,7 +724,15 @@
         <v>45418</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45419</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -875,13 +886,13 @@
     </row>
     <row r="13" spans="1:3" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2AB313-0E96-5C4C-8041-6E41AC61170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDDB3A-BDAB-1749-8885-1D862791C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -177,10 +177,18 @@
     <t>Diverse Literatur gelesen</t>
   </si>
   <si>
-    <t>Schriftlicher Teil: Latex Dokument vorbereitet / organisiert und Struktur geschaffen</t>
-  </si>
-  <si>
     <t>Grafische Reduktionsmethode anhand von "Achtung Lawine!" digitalisiert / in Gleichungsform gebracht, leider nicht brauchbar</t>
+  </si>
+  <si>
+    <t>git:3382c69225eb22a189774738018d7c31c3d3a59b
+Erste Einleitung geschrieben</t>
+  </si>
+  <si>
+    <t>Schriftlicher Teil: Latex Dokument vorbereitet / organisiert und Struktur geschaffen
+Abstract aus Projektvertrag</t>
+  </si>
+  <si>
+    <t>Einleitung weiter ausgearbeitet, Vorwort verfasst, Methodik weiter ausgeschrieben</t>
   </si>
 </sst>
 </file>
@@ -241,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,6 +273,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -708,7 +719,7 @@
         <v>45381</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -731,8 +742,24 @@
       <c r="A9" s="3">
         <v>45419</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>45420</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>45422</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDDB3A-BDAB-1749-8885-1D862791C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA99CD0-22D6-2747-B34B-641BDEF04BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -189,6 +189,14 @@
   </si>
   <si>
     <t>Einleitung weiter ausgearbeitet, Vorwort verfasst, Methodik weiter ausgeschrieben</t>
+  </si>
+  <si>
+    <t>2 grundlegend Verschiedene Methoden:
+1. Physiksimulation
+2. Analyse von Geländefaktoren</t>
+  </si>
+  <si>
+    <t>Physiksimulation nachlesen</t>
   </si>
 </sst>
 </file>
@@ -249,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -273,9 +281,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,11 +760,27 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>45422</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA99CD0-22D6-2747-B34B-641BDEF04BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D017A95F-EB3E-DF4D-B4CD-BC14D384A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>Physiksimulation nachlesen</t>
+  </si>
+  <si>
+    <t>Physikalische grundlagen verstehen, ableiten</t>
+  </si>
+  <si>
+    <t>Physiksimulation implementieren</t>
+  </si>
+  <si>
+    <t>Vorher</t>
+  </si>
+  <si>
+    <t>Einlesen von GEOTIFF / Höhenmodell</t>
   </si>
 </sst>
 </file>
@@ -280,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,99 +700,123 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>45373</v>
+      <c r="A2" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>45377</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>45376</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>45378</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>45377</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
+        <v>45378</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>45381</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>45418</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <v>45418</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>45419</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>45420</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
+        <v>45420</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>45422</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>45425</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>45426</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>45428</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D017A95F-EB3E-DF4D-B4CD-BC14D384A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27332BA2-2CC4-6347-A753-583DFF2181F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -209,6 +209,13 @@
   </si>
   <si>
     <t>Einlesen von GEOTIFF / Höhenmodell</t>
+  </si>
+  <si>
+    <t>Bis hierhin auf versch. Wege mit Physiksim rumgepröbelt, nicht erfolgreich --&gt; Rein analytisches Vorgehen
+Herunterladen von schweizer geodatene, zusammenhängen in eine grosse datei, reprojezieren von bessel auf wgs84 und RGB Format, darstellung in Visualisierung. Erstmals sind 3d- Landschaften in der Schweiz dargestellt</t>
+  </si>
+  <si>
+    <t>Herunterladen von weiteren Kantonen, konvertieren und erste versuche mit webhosting auf öffentlichem server</t>
   </si>
 </sst>
 </file>
@@ -292,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -817,6 +824,22 @@
       </c>
       <c r="B16" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>45439</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>45440</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27332BA2-2CC4-6347-A753-583DFF2181F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8773B872-F03F-514E-BBF8-1829B46AA766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -216,6 +216,11 @@
   </si>
   <si>
     <t>Herunterladen von weiteren Kantonen, konvertieren und erste versuche mit webhosting auf öffentlichem server</t>
+  </si>
+  <si>
+    <t>Bis Hier seit letztem Eintrag: Neuen Servercode geschrieben, um MBTiles statisch zu hosten (Y-Koordinate anders als dateibaum),
+Kartenmaterial von Swisstopo anstelle geklauten FatMap karten, Vektorkarten eingepflegt
+Erste Versuche mit Frontend. Erreichbar unter https://robofactory.ch/ma/#12.97/46.39889/7.54997/33.6/51</t>
   </si>
 </sst>
 </file>
@@ -686,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -840,6 +845,14 @@
       </c>
       <c r="B18" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>45448</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8773B872-F03F-514E-BBF8-1829B46AA766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF3FC8-D78D-3742-9B99-0614AE7D8C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -221,6 +221,11 @@
     <t>Bis Hier seit letztem Eintrag: Neuen Servercode geschrieben, um MBTiles statisch zu hosten (Y-Koordinate anders als dateibaum),
 Kartenmaterial von Swisstopo anstelle geklauten FatMap karten, Vektorkarten eingepflegt
 Erste Versuche mit Frontend. Erreichbar unter https://robofactory.ch/ma/#12.97/46.39889/7.54997/33.6/51</t>
+  </si>
+  <si>
+    <t>Bis hierhin GRM neu digitalisiert (neue Gleichung, einfacher und representativer nach literatur)
+GPU code zur verarbeitung von rasterdaten geschrieben. Problem: Speicherbandbreite ist limitierender Faktor, nicht CPU
+Gefahrenkarte mittels GRM</t>
   </si>
 </sst>
 </file>
@@ -281,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -305,6 +310,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -853,6 +861,14 @@
       </c>
       <c r="B19" s="7" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>45455</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF3FC8-D78D-3742-9B99-0614AE7D8C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639EEE2-1907-1F4B-ADC1-774735775A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsprotokoll" sheetId="1" r:id="rId1"/>
-    <sheet name="Recherche" sheetId="2" r:id="rId2"/>
+    <sheet name="Testrouten" sheetId="3" r:id="rId2"/>
+    <sheet name="Recherche" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Datum</t>
   </si>
@@ -226,6 +227,92 @@
     <t>Bis hierhin GRM neu digitalisiert (neue Gleichung, einfacher und representativer nach literatur)
 GPU code zur verarbeitung von rasterdaten geschrieben. Problem: Speicherbandbreite ist limitierender Faktor, nicht CPU
 Gefahrenkarte mittels GRM</t>
+  </si>
+  <si>
+    <t>QGIS-Modell per Kommandozeile/Pythonskript aufrufen</t>
+  </si>
+  <si>
+    <t>QGIS-Modelle als Implementation ausgewählt
+Erstes "naives" modell implementiert, sofort ersichtliches Probleme: Gewässer, Grate, Kostenmatrix
+Kostenmatrixproblem: Was wird wie schwer gewichtet. Ab welcher Zeitersparniss darf anspruchvolleres Terrain begangen werden?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seen mittels SwissTLM eingebunden. Als nächstes folgen: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brücken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ersichtlich in Realp, UR), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strassen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Hospental/Start in Dorf)
+Mögliches Feature nach Besprechung eingefallen: Seen sollen als zugefroren festgelegt werden können</t>
+    </r>
+  </si>
+  <si>
+    <t>Servercode um aus Webapp modell aufzurufen, Koordinatenauswahl in Webapp, erster Prototyp funktioniert</t>
+  </si>
+  <si>
+    <t>Flüsse in Modell aufgenommen, sowie Sommerwanderwege und Brücken -&gt; Bessere Routen rund um Realp,
+findet am Steingletscher jetzt auch die untere, sicherere Lücke</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Startpunkt LV95 S</t>
+  </si>
+  <si>
+    <t>LV95 E</t>
+  </si>
+  <si>
+    <t>Tierbergli ab Steingletscher</t>
+  </si>
+  <si>
+    <t>Rotondo ab Realp</t>
+  </si>
+  <si>
+    <t>Stotzig First ab Realp</t>
+  </si>
+  <si>
+    <t>Fünffingerstock ab Steingletscher</t>
+  </si>
+  <si>
+    <t>Huser Stock ab Stoos SZ</t>
+  </si>
+  <si>
+    <t>Urner Haute Route ab Chelenalp zu _____</t>
   </si>
 </sst>
 </file>
@@ -286,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,6 +402,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -699,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -864,11 +952,51 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>45455</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>45456</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>45458</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>45460</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>45461</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -880,6 +1008,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B9A7A5-BF47-484E-98A2-2DC1FFC45FC2}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78EDC2B-6FEF-134D-BE2D-954A4E028471}">
   <dimension ref="A1:C13"/>
   <sheetViews>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639EEE2-1907-1F4B-ADC1-774735775A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E71E9-9795-6441-BD1B-5149A18D18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" activeTab="1" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsprotokoll" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -313,6 +313,10 @@
   </si>
   <si>
     <t>Urner Haute Route ab Chelenalp zu _____</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webapp weiter ausgebaut: Login mit Google-Account, speichern über sessions hinweg.
+Erste Ideen für Studie gesammelt: 1. Route Erkennen, 2. Routen Bewerten (Menschliche und maschinelle), 3. </t>
   </si>
 </sst>
 </file>
@@ -373,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -397,9 +401,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -960,7 +961,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>45456</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -976,7 +977,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>45458</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -997,6 +998,14 @@
       </c>
       <c r="B25" s="7" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>45467</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B9A7A5-BF47-484E-98A2-2DC1FFC45FC2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1023,13 +1032,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>66</v>
       </c>
     </row>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865E71E9-9795-6441-BD1B-5149A18D18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62348C-62F2-1543-9CE9-C5FEA44F4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Datum</t>
   </si>
@@ -317,6 +317,9 @@
   <si>
     <t xml:space="preserve">Webapp weiter ausgebaut: Login mit Google-Account, speichern über sessions hinweg.
 Erste Ideen für Studie gesammelt: 1. Route Erkennen, 2. Routen Bewerten (Menschliche und maschinelle), 3. </t>
+  </si>
+  <si>
+    <t>berechnungsmodel läuft nun auf server, erste öffentliche version</t>
   </si>
 </sst>
 </file>
@@ -788,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1006,6 +1009,14 @@
       </c>
       <c r="B26" s="7" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62348C-62F2-1543-9CE9-C5FEA44F4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D1BBB-1DBF-4E48-85E6-680829AF3308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Datum</t>
   </si>
@@ -320,6 +320,19 @@
   </si>
   <si>
     <t>berechnungsmodel läuft nun auf server, erste öffentliche version</t>
+  </si>
+  <si>
+    <t>Während erste 3 Wochen Sommerferien</t>
+  </si>
+  <si>
+    <t>Leider nicht detailiert dokumentiert:
+- Anstrengung soll nun auch berücksichtigt werden. Bekannte Software dazu läuft leider auf meinem Server nicht - falsches Betreibssystem. Ich Implementiere den Algorithmus grass.r_walk also neu
+- Dabei mache ich den klassischen Informatik Fehler, und verliere die funktionierende Version meines systems</t>
+  </si>
+  <si>
+    <t>Das neue selbstgeschriebene Plugin um grass igs' r_walk zu ersetzen ist Fertig.
+Arbeit an CI/CD Pipeline "automatisches Veröffentlichen"
+Findung von Modelparametern</t>
   </si>
 </sst>
 </file>
@@ -380,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -407,6 +420,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -791,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1017,6 +1033,22 @@
       </c>
       <c r="B27" s="2" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>45508</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D1BBB-1DBF-4E48-85E6-680829AF3308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D8626-222D-3C45-9BF4-698EE6174703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Datum</t>
   </si>
@@ -333,6 +333,15 @@
     <t>Das neue selbstgeschriebene Plugin um grass igs' r_walk zu ersetzen ist Fertig.
 Arbeit an CI/CD Pipeline "automatisches Veröffentlichen"
 Findung von Modelparametern</t>
+  </si>
+  <si>
+    <t>Schreiben an Einleitung</t>
+  </si>
+  <si>
+    <t>Bis 11.8.24</t>
+  </si>
+  <si>
+    <t>Schreiben an Theorieteil und Methodik</t>
   </si>
 </sst>
 </file>
@@ -807,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1045,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1049,6 +1058,22 @@
       </c>
       <c r="B29" s="7" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>45509</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/admin/ArbeitRechercheProtokoll.xlsx
+++ b/admin/ArbeitRechercheProtokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesseb0rn/Documents/repos/Maturaarbeit-AlgoSkitour/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D8626-222D-3C45-9BF4-698EE6174703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908199FA-1E10-5A42-9A08-6FB103F9D3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19560" xr2:uid="{2D008D72-86D5-EB40-AD94-69D6209CD82B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Datum</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>Schreiben an Theorieteil und Methodik</t>
+  </si>
+  <si>
+    <t>Spontanes Gespräch: Expertenevaluation ausgetauscht mit Selbstevaluation anhand von Literaturrouten</t>
+  </si>
+  <si>
+    <t>Bis 17.8.24</t>
+  </si>
+  <si>
+    <t>Evaluation, Schreiben</t>
+  </si>
+  <si>
+    <t>Schreiben</t>
   </si>
 </sst>
 </file>
@@ -816,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D782E287-958A-6A4A-8571-1A1F19BBDAF3}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="64" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1069,11 +1081,35 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>45517</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>45523</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
